--- a/TargetedTargetsHorizontal30.xlsx
+++ b/TargetedTargetsHorizontal30.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="28455" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="28460" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,16 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A3" sqref="A3:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="17.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="17">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -567,7 +570,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="17.25">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="17">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,112 +646,112 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <f>A3+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J62" si="0">B3+1</f>
-        <v>10</v>
+        <f t="shared" ref="J3:J32" si="0">B3+1</f>
+        <v>7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K62" si="1">C3+1</f>
+        <f t="shared" ref="K3:K32" si="1">C3+1</f>
         <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L62" si="2">D3+1</f>
-        <v>4</v>
+        <f t="shared" ref="L3:L32" si="2">D3+1</f>
+        <v>3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M62" si="3">E3+1</f>
+        <f t="shared" ref="M3:M32" si="3">E3+1</f>
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N62" si="4">F3+1</f>
-        <v>4</v>
+        <f t="shared" ref="N3:N32" si="4">F3+1</f>
+        <v>3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O62" si="5">G3+1</f>
-        <v>7</v>
+        <f t="shared" ref="O3:O32" si="5">G3+1</f>
+        <v>5</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P62" si="6">H3+1</f>
-        <v>7</v>
+        <f t="shared" ref="P3:P32" si="6">H3+1</f>
+        <v>5</v>
       </c>
       <c r="Q3">
         <f>A3+2</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R62" si="7">B3+2</f>
-        <v>11</v>
+        <f t="shared" ref="R3:R32" si="7">B3+2</f>
+        <v>8</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S62" si="8">C3+2</f>
+        <f t="shared" ref="S3:S32" si="8">C3+2</f>
         <v>2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T62" si="9">D3+2</f>
-        <v>5</v>
+        <f t="shared" ref="T3:T32" si="9">D3+2</f>
+        <v>4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U62" si="10">E3+2</f>
+        <f t="shared" ref="U3:U32" si="10">E3+2</f>
         <v>2</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V62" si="11">F3+2</f>
-        <v>5</v>
+        <f t="shared" ref="V3:V32" si="11">F3+2</f>
+        <v>4</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W62" si="12">G3+2</f>
-        <v>8</v>
+        <f t="shared" ref="W3:W32" si="12">G3+2</f>
+        <v>6</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X62" si="13">H3+2</f>
-        <v>8</v>
+        <f t="shared" ref="X3:X32" si="13">H3+2</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -757,8 +760,8 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I62" si="14">A4+1</f>
-        <v>7</v>
+        <f t="shared" ref="I4:I32" si="14">A4+1</f>
+        <v>5</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -766,7 +769,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
@@ -774,11 +777,11 @@
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
@@ -789,8 +792,8 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q62" si="15">A4+2</f>
-        <v>8</v>
+        <f t="shared" ref="Q4:Q32" si="15">A4+2</f>
+        <v>6</v>
       </c>
       <c r="R4">
         <f t="shared" si="7"/>
@@ -798,7 +801,7 @@
       </c>
       <c r="S4">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T4">
         <f t="shared" si="9"/>
@@ -806,11 +809,11 @@
       </c>
       <c r="U4">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <f t="shared" si="12"/>
@@ -823,36 +826,36 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -860,31 +863,31 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S5">
         <f t="shared" si="8"/>
@@ -892,23 +895,23 @@
       </c>
       <c r="T5">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -919,22 +922,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <f t="shared" si="14"/>
@@ -946,7 +949,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
@@ -954,7 +957,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -962,11 +965,11 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <f t="shared" si="15"/>
@@ -978,7 +981,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6">
         <f t="shared" si="9"/>
@@ -986,7 +989,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V6">
         <f t="shared" si="11"/>
@@ -994,45 +997,45 @@
       </c>
       <c r="W6">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X6">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
@@ -1040,31 +1043,31 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S7">
         <f t="shared" si="8"/>
@@ -1072,69 +1075,69 @@
       </c>
       <c r="T7">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
@@ -1142,31 +1145,31 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q8">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R8">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T8">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <f t="shared" si="11"/>
@@ -1174,19 +1177,19 @@
       </c>
       <c r="W8">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1198,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1208,11 +1211,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
@@ -1228,7 +1231,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <f t="shared" si="5"/>
@@ -1240,11 +1243,11 @@
       </c>
       <c r="Q9">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R9">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S9">
         <f t="shared" si="8"/>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <f t="shared" si="12"/>
@@ -1279,22 +1282,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <f t="shared" si="14"/>
@@ -1306,27 +1309,27 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q10">
         <f t="shared" si="15"/>
@@ -1338,69 +1341,69 @@
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T10">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U10">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X10">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
@@ -1408,11 +1411,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O11">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
@@ -1420,19 +1423,19 @@
       </c>
       <c r="Q11">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U11">
         <f t="shared" si="10"/>
@@ -1440,11 +1443,11 @@
       </c>
       <c r="V11">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W11">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X11">
         <f t="shared" si="13"/>
@@ -1453,32 +1456,32 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -1486,7 +1489,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
@@ -1494,7 +1497,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
@@ -1502,15 +1505,15 @@
       </c>
       <c r="O12">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P12">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
@@ -1518,7 +1521,7 @@
       </c>
       <c r="S12">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T12">
         <f t="shared" si="9"/>
@@ -1526,7 +1529,7 @@
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12">
         <f t="shared" si="11"/>
@@ -1534,53 +1537,53 @@
       </c>
       <c r="W12">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X12">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
@@ -1588,7 +1591,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <f t="shared" si="5"/>
@@ -1596,23 +1599,23 @@
       </c>
       <c r="P13">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q13">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R13">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T13">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <f t="shared" si="10"/>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W13">
         <f t="shared" si="12"/>
@@ -1628,7 +1631,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1645,16 +1648,16 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <f t="shared" si="14"/>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
@@ -1682,11 +1685,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q14">
         <f t="shared" si="15"/>
@@ -1706,7 +1709,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
@@ -1714,61 +1717,61 @@
       </c>
       <c r="W14">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X14">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
@@ -1776,31 +1779,31 @@
       </c>
       <c r="P15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S15">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T15">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
@@ -1808,7 +1811,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1819,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <f t="shared" si="14"/>
@@ -1846,15 +1849,15 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
@@ -1862,11 +1865,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q16">
         <f t="shared" si="15"/>
@@ -1878,15 +1881,15 @@
       </c>
       <c r="S16">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V16">
         <f t="shared" si="11"/>
@@ -1894,22 +1897,22 @@
       </c>
       <c r="W16">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1918,25 +1921,25 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
@@ -1948,7 +1951,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
@@ -1956,19 +1959,19 @@
       </c>
       <c r="P17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T17">
         <f t="shared" si="9"/>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W17">
         <f t="shared" si="12"/>
@@ -1988,135 +1991,135 @@
       </c>
       <c r="X17">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P18">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T18">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W18">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X18">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
@@ -2124,7 +2127,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
@@ -2132,23 +2135,23 @@
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T19">
         <f t="shared" si="9"/>
@@ -2156,7 +2159,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V19">
         <f t="shared" si="11"/>
@@ -2164,16 +2167,16 @@
       </c>
       <c r="W19">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X19">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2182,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2198,7 +2201,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -2210,7 +2213,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
@@ -2218,7 +2221,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
@@ -2230,7 +2233,7 @@
       </c>
       <c r="Q20">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <f t="shared" si="7"/>
@@ -2242,7 +2245,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <f t="shared" si="10"/>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W20">
         <f t="shared" si="12"/>
@@ -2263,48 +2266,48 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
@@ -2312,31 +2315,31 @@
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P21">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q21">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T21">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V21">
         <f t="shared" si="11"/>
@@ -2344,11 +2347,11 @@
       </c>
       <c r="W21">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X21">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2368,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2382,7 +2385,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
@@ -2398,11 +2401,11 @@
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P22">
         <f t="shared" si="6"/>
@@ -2414,7 +2417,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <f t="shared" si="8"/>
@@ -2430,11 +2433,11 @@
       </c>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <f t="shared" si="13"/>
@@ -2443,19 +2446,19 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2464,27 +2467,27 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
@@ -2496,27 +2499,27 @@
       </c>
       <c r="P23">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q23">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S23">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V23">
         <f t="shared" si="11"/>
@@ -2528,37 +2531,37 @@
       </c>
       <c r="X23">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -2566,11 +2569,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
@@ -2578,19 +2581,19 @@
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O24">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q24">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24">
         <f t="shared" si="7"/>
@@ -2598,11 +2601,11 @@
       </c>
       <c r="S24">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U24">
         <f t="shared" si="10"/>
@@ -2610,35 +2613,35 @@
       </c>
       <c r="V24">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W24">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X24">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2648,27 +2651,27 @@
       </c>
       <c r="I25">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <f t="shared" si="5"/>
@@ -2680,27 +2683,27 @@
       </c>
       <c r="Q25">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T25">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W25">
         <f t="shared" si="12"/>
@@ -2716,25 +2719,25 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <f t="shared" si="14"/>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
@@ -2750,7 +2753,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <f t="shared" si="3"/>
@@ -2758,15 +2761,15 @@
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P26">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26">
         <f t="shared" si="15"/>
@@ -2774,7 +2777,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <f t="shared" si="8"/>
@@ -2782,7 +2785,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <f t="shared" si="10"/>
@@ -2790,32 +2793,32 @@
       </c>
       <c r="V26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W26">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X26">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2824,11 +2827,11 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -2836,15 +2839,15 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M27">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
@@ -2856,11 +2859,11 @@
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q27">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R27">
         <f t="shared" si="7"/>
@@ -2868,15 +2871,15 @@
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T27">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U27">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <f t="shared" si="11"/>
@@ -2888,15 +2891,15 @@
       </c>
       <c r="X27">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2908,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
@@ -2938,11 +2941,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O28">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P28">
         <f t="shared" si="6"/>
@@ -2950,11 +2953,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S28">
         <f t="shared" si="8"/>
@@ -2970,11 +2973,11 @@
       </c>
       <c r="V28">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W28">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X28">
         <f t="shared" si="13"/>
@@ -2983,32 +2986,32 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -3016,15 +3019,15 @@
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
@@ -3032,15 +3035,15 @@
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <f t="shared" si="7"/>
@@ -3048,15 +3051,15 @@
       </c>
       <c r="S29">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T29">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V29">
         <f t="shared" si="11"/>
@@ -3064,45 +3067,45 @@
       </c>
       <c r="W29">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X29">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
@@ -3110,7 +3113,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M30">
         <f t="shared" si="3"/>
@@ -3118,11 +3121,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
@@ -3130,11 +3133,11 @@
       </c>
       <c r="Q30">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S30">
         <f t="shared" si="8"/>
@@ -3142,7 +3145,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U30">
         <f t="shared" si="10"/>
@@ -3150,11 +3153,11 @@
       </c>
       <c r="V30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W30">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X30">
         <f t="shared" si="13"/>
@@ -3163,103 +3166,103 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P31">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q31">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S31">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V31">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W31">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X31">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3268,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3278,7 +3281,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
@@ -3286,7 +3289,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
@@ -3298,7 +3301,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O32">
         <f t="shared" si="5"/>
@@ -3310,7 +3313,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R32">
         <f t="shared" si="7"/>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="S32">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T32">
         <f t="shared" si="9"/>
@@ -3330,7 +3333,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W32">
         <f t="shared" si="12"/>
@@ -3349,29 +3352,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>